--- a/biology/Histoire de la zoologie et de la botanique/Patrice_Van_Eersel/Patrice_Van_Eersel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Patrice_Van_Eersel/Patrice_Van_Eersel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Patrice Van Eersel est un journaliste et écrivain français né le 30 janvier 1949[1] à Safi au Maroc, où il a vécu jusqu'à l'âge de 17 ans.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patrice Van Eersel est un journaliste et écrivain français né le 30 janvier 1949 à Safi au Maroc, où il a vécu jusqu'à l'âge de 17 ans.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de l'Institut d'études politiques de Paris et du Centre de formation des journalistes de Paris, il a participé au lancement de Libération (1973-74), avant de rejoindre l'équipe d'Actuel, dont il fut l’un des grands reporters et chroniqueurs scientifiques (1974-1992). Depuis 1992, il est rédacteur en chef du magazine Nouvelles Clés — devenu Clés en 2010 — et dirige la collection homonyme chez Albin Michel.
 Son livre "la source noire" a été la source d'inspiration principale de la création de l'Institut suisse des sciences noétiques par Sylvie Déthiollaz.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Au parti des socialistes, de Jean-François Bizot, avec la collaboration de Léon Mercadet et Patrice van Eersel, éditions Grasset, Paris, 1975
 Voyage à l'intérieur de l'Église catholique, de Jean Puyo et Patrice van Eersel, Stock, 1976
@@ -570,9 +586,43 @@
 Pour une grossesse et une naissance heureuses, Naître enchantés, ouvrage collectif avec Magali Dieux et Benoît Le Goëdec, préface de René Frydman, Éditions Actes Sud, 2015
 Réapprivoiser la mort: Nouvelles recherches sur l'expérience de mort imminente, Albin Michel, 2016,  (ISBN 2226384685 et 9782226384683)
 Patrice Van Eersel, L'aventure d'Actuel telle que je l'ai vécue, Albin Michel, 1er septembre 2017, 512 p. (ISBN 978-2226326867)
-Patrice Van Eersel, Noosphère : Eléments d’un grand récit pour le 21e siècle, Albin Michel, 1er octobre 2021, 395 p. (ISBN 978-2-226-44055-6)
-Contributions à des ouvrages collectifs
-« Derrière l'effondrement, la peur de mourir », dans Laurent Testot et Laurent Aillet (direction), Collapsus : Changer ou disparaître ? Le vrai bilan sur notre planète, Éditions Albin Michel, 2020, 352 p. (ISBN 978-2-22644-897-2).</t>
+Patrice Van Eersel, Noosphère : Eléments d’un grand récit pour le 21e siècle, Albin Michel, 1er octobre 2021, 395 p. (ISBN 978-2-226-44055-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Patrice_Van_Eersel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Patrice_Van_Eersel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Contributions à des ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« Derrière l'effondrement, la peur de mourir », dans Laurent Testot et Laurent Aillet (direction), Collapsus : Changer ou disparaître ? Le vrai bilan sur notre planète, Éditions Albin Michel, 2020, 352 p. (ISBN 978-2-22644-897-2).</t>
         </is>
       </c>
     </row>
